--- a/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
+++ b/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
@@ -134,78 +134,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>actualParam</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>未提交过-提交实名认证成功</t>
@@ -238,7 +230,7 @@
 "effectiveStartTime":"2020-03-30",
 "effectiveEndTime":"2020-12-30"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -253,7 +245,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -267,7 +259,7 @@
 "effectiveStartTime":"2020-03-30",
 "effectiveEndTime":"2020-12-30"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -276,7 +268,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.submitIdentityInfo(***.web.request.SubmitIdentityInfoRequest): [Field error in object 'submitIdentityInfoRequest' on field 'tenantUserId': rejected value []; codes [NotBlank.submitIdentityInfoRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [submitIdentityInfoRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-name为空</t>
@@ -290,7 +282,7 @@
 "effectiveStartTime":"2020-03-30",
 "effectiveEndTime":"2020-12-30"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -299,7 +291,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.submitIdentityInfo(***.web.request.SubmitIdentityInfoRequest): [Field error in object 'submitIdentityInfoRequest' on field 'name': rejected value []; codes [NotBlank.submitIdentityInfoRequest.name,NotBlank.name,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [submitIdentityInfoRequest.name,name]; arguments []; default message [name]]; default message [用户名字不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-certNo为空</t>
@@ -321,7 +313,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.submitIdentityInfo(***.web.request.SubmitIdentityInfoRequest): [Field error in object 'submitIdentityInfoRequest' on field 'certNo': rejected value []; codes [NotBlank.submitIdentityInfoRequest.certNo,NotBlank.certNo,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [submitIdentityInfoRequest.certNo,certNo]; arguments []; default message [certNo]]; default message [证件号码不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-effectiveStartTime为空</t>
@@ -340,7 +332,7 @@
 "effectiveStartTime":"2020-03-30",
 "effectiveEndTime":""
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -394,7 +386,7 @@
   </si>
   <si>
     <t>identitySubmit-001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>identitySubmit-002</t>
@@ -437,11 +429,11 @@
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/identity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>/submitIdentityInfo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -477,7 +469,7 @@
 }
 </t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -513,17 +505,11 @@
 }
 </t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>提交过-提交实名认证成功-name，certNo不变更</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -531,7 +517,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -541,7 +527,7 @@
 "effectiveStartTime":"2020-03-30",
 "effectiveEndTime":"2020-12-30"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -551,7 +537,7 @@
  "effectiveStartTime":"2020-03-30",
  "effectiveEndTime":"2020-12-30"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -586,7 +572,7 @@
 "effectiveEndTime":"2020-12-30"
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -621,7 +607,7 @@
 "effectiveEndTime":""
 }</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -632,7 +618,7 @@
 "effectiveStartTime":"2020-03-30",
 "effectiveEndTime":"2020-12-30"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -641,29 +627,19 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.submitIdentityInfo(***.web.request.SubmitIdentityInfoRequest): [Field error in object 'submitIdentityInfoRequest' on field 'tenantId': rejected value []; codes [NotEmpty.submitIdentityInfoRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [submitIdentityInfoRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>user_id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>select * from user_identity where tenant_user_id = 005 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -699,19 +675,15 @@
 }
 </t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>693145221335302000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from user_info_item where tenant_user_id = 005 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>key_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -728,11 +700,7 @@
       </rPr>
       <t>**</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from user_info_item where tenant_user_id = 005 and tenant_id = 1001 and key_name = "certNo"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -749,19 +717,159 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59")
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key_value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from user_info_item where tenant_user_id = 005 and tenant_id = 1001 and key_name = "name"</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key_value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from user_info_item where tenant_user_id = 005 and tenant_id = 1001 and key_name = "certNo"</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+delete from user_request_serial where tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+delete from user_request_serial where tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -941,218 +1049,233 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1440,7 +1563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1505,13 +1628,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.5" customHeight="1">
@@ -1519,76 +1642,82 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="55"/>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="68" t="s">
-        <v>80</v>
-      </c>
       <c r="P2" s="66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="126">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="409.5">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>87</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>64</v>
-      </c>
       <c r="M3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="72" t="s">
         <v>82</v>
-      </c>
-      <c r="O3" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="100" customHeight="1">
@@ -1596,34 +1725,40 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>87</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="64" t="s">
+      <c r="M4" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="64" t="s">
-        <v>68</v>
-      </c>
       <c r="N4" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O4" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" s="66" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="112">
@@ -1631,28 +1766,28 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="K5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="57" t="s">
+      <c r="M5" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="N5" s="38"/>
       <c r="O5" s="21"/>
@@ -1663,25 +1798,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M6" s="64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N6" s="38"/>
       <c r="O6" s="22"/>
@@ -1692,25 +1827,25 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="22"/>
@@ -1721,26 +1856,26 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L8" s="59"/>
       <c r="M8" s="60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="22"/>
@@ -1751,26 +1886,26 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="61" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9" s="38"/>
       <c r="O9" s="22"/>
@@ -1781,25 +1916,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J10" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N10" s="38"/>
       <c r="O10" s="22"/>
@@ -1810,25 +1945,25 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J11" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="22"/>
@@ -1839,25 +1974,25 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="N12" s="19"/>
     </row>
@@ -1866,25 +2001,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="N13" s="19"/>
     </row>
@@ -1893,26 +2028,26 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="I14" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J14" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L14" s="63"/>
       <c r="M14" s="62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N14" s="19"/>
     </row>
@@ -1921,26 +2056,26 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>63</v>
-      </c>
       <c r="J15" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L15" s="63"/>
       <c r="M15" s="62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N15" s="19"/>
     </row>
@@ -4823,7 +4958,7 @@
       <c r="M189" s="29"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3:H15" r:id="rId2" display="https://user-center-thu.tunaikita.id/identity"/>

--- a/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
+++ b/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1760" yWindow="-20740" windowWidth="38180" windowHeight="18300"/>
+    <workbookView xWindow="-9620" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="identitySubmit" sheetId="2" r:id="rId1"/>
@@ -496,22 +496,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>005,name,小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -676,10 +660,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>select  state  from user_identity where tenant_user_id = "005" and tenant_id = "1001";</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -715,6 +695,14 @@
 }
 </t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>005,name,c**</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  state  from user_identity where tenant_user_id = "005" and tenant_id = "1001"  BY id ASC LIMIT 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1327,9 +1315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1396,10 +1384,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>62</v>
@@ -1427,13 +1415,13 @@
       <c r="D2" s="45"/>
       <c r="E2" s="48"/>
       <c r="F2" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="49" t="s">
         <v>55</v>
@@ -1442,25 +1430,25 @@
         <v>19</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="51" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P2" s="55" t="s">
         <v>69</v>
       </c>
       <c r="Q2" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="54" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="S2" s="54" t="s">
         <v>68</v>
@@ -1479,13 +1467,13 @@
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
       <c r="F3" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>55</v>
@@ -1494,25 +1482,25 @@
         <v>19</v>
       </c>
       <c r="K3" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" s="51" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P3" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R3" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S3" s="54" t="s">
         <v>68</v>
@@ -1526,15 +1514,15 @@
         <v>42</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>54</v>
@@ -1552,16 +1540,16 @@
         <v>57</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P4" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="52" customFormat="1" ht="120" x14ac:dyDescent="0.2">
@@ -1654,7 +1642,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="51" t="s">
         <v>24</v>
@@ -1686,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M8" s="44" t="s">
         <v>26</v>
@@ -1718,7 +1706,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="44" t="s">
         <v>28</v>
@@ -1739,13 +1727,13 @@
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="49" t="s">
         <v>55</v>
@@ -1754,19 +1742,19 @@
         <v>19</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>22</v>
       </c>
       <c r="N10" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10" s="51" t="s">
         <v>65</v>
       </c>
       <c r="P10" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="54" t="s">
         <v>68</v>
@@ -1785,10 +1773,10 @@
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -1800,19 +1788,19 @@
         <v>19</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O11" s="51" t="s">
         <v>65</v>
       </c>
       <c r="P11" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="54" t="s">
         <v>68</v>
@@ -1842,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M12" s="51" t="s">
         <v>32</v>
@@ -1906,7 +1894,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M14" s="51" t="s">
         <v>37</v>

--- a/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
+++ b/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
@@ -652,10 +652,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>select key_value from user_info_item where tenant_user_id = 005 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>select key_value from user_info_item where tenant_user_id = 005 and tenant_id = 1001 and key_name = "certNo"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -701,7 +697,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>select  state  from user_identity where tenant_user_id = "005" and tenant_id = "1001"  BY id ASC LIMIT 1</t>
+    <t>select key_value from user_info_item where tenant_user_id = 005 and tenant_id = 1001 and key_name = "name"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  state  from user_identity where tenant_user_id = "005" and tenant_id = "1001"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1316,8 +1316,8 @@
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2"/>
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1436,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="N2" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O2" s="51" t="s">
         <v>100</v>
@@ -1448,7 +1448,7 @@
         <v>90</v>
       </c>
       <c r="R2" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S2" s="54" t="s">
         <v>68</v>
@@ -1491,7 +1491,7 @@
         <v>87</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P3" s="55" t="s">
         <v>83</v>
@@ -1543,7 +1543,7 @@
         <v>71</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="54" t="s">
         <v>84</v>
@@ -1742,7 +1742,7 @@
         <v>19</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>22</v>
@@ -1788,7 +1788,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>22</v>
@@ -1830,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M12" s="51" t="s">
         <v>32</v>

--- a/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
+++ b/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/identitySubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform/src/main/resources/caseconf/identitySubmit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1316,8 +1316,8 @@
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
+++ b/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
@@ -656,10 +656,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "tenantId":"1001",
 "tenantUserId":"005",
@@ -701,7 +697,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>select  state  from user_identity where tenant_user_id = "005" and tenant_id = "1001"</t>
+    <t>select  state,tenant_id, from user_identity where tenant_user_id = "005" and tenant_id = "1001"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1001</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1316,8 +1316,8 @@
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2"/>
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1436,10 +1436,10 @@
         <v>16</v>
       </c>
       <c r="N2" s="53" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="55" t="s">
         <v>69</v>
@@ -1448,7 +1448,7 @@
         <v>90</v>
       </c>
       <c r="R2" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S2" s="54" t="s">
         <v>68</v>
@@ -1491,7 +1491,7 @@
         <v>87</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P3" s="55" t="s">
         <v>83</v>
@@ -1742,7 +1742,7 @@
         <v>19</v>
       </c>
       <c r="K10" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>22</v>
@@ -1788,7 +1788,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M11" s="51" t="s">
         <v>22</v>
@@ -1830,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M12" s="51" t="s">
         <v>32</v>

--- a/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
+++ b/target/classes/caseconf/identitySubmit/Case_identitySubmit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform/src/main/resources/caseconf/identitySubmit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform0514/src/main/resources/caseconf/identitySubmit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -697,11 +697,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>select  state,tenant_id, from user_identity where tenant_user_id = "005" and tenant_id = "1001"</t>
+    <t>1,1001</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1,1001</t>
+    <t>select  state,tenant_id from user_identity where tenant_user_id = "005" and tenant_id = "1001"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1316,8 +1316,8 @@
   <dimension ref="A1:S189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M3" sqref="M3"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1436,10 +1436,10 @@
         <v>16</v>
       </c>
       <c r="N2" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="51" t="s">
         <v>100</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>99</v>
       </c>
       <c r="P2" s="55" t="s">
         <v>69</v>
